--- a/Hoja Oculta/Parametros.xlsx
+++ b/Hoja Oculta/Parametros.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>base_largo</t>
   </si>
@@ -78,6 +78,36 @@
   </si>
   <si>
     <t>hoja_cola_biselado</t>
+  </si>
+  <si>
+    <t>hoja_ancho_total</t>
+  </si>
+  <si>
+    <t>deslizador_soporte_largo</t>
+  </si>
+  <si>
+    <t>deslizador_soporte_ancho</t>
+  </si>
+  <si>
+    <t>deslizador_soporte_alto</t>
+  </si>
+  <si>
+    <t>deslizador_tope_alto</t>
+  </si>
+  <si>
+    <t>deslizador_tope_largo</t>
+  </si>
+  <si>
+    <t>deslizador_alto</t>
+  </si>
+  <si>
+    <t>tirador_agarre_largo</t>
+  </si>
+  <si>
+    <t>tirador_largo</t>
+  </si>
+  <si>
+    <t>movimiento_hoja</t>
   </si>
 </sst>
 </file>
@@ -395,105 +425,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
         <v>3</v>
-      </c>
-      <c r="B1">
-        <v>0.3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <f>B5</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <f>B4 / 2</f>
-        <v>1.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,45 +543,130 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <f xml:space="preserve"> LOOKUP("base_alto",A:A,B:B ) / 2</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f xml:space="preserve"> LOOKUP("hoja_ancho",A:A,B:B) + (LOOKUP("hoja_stop_saliente",A:A,B:B) * 2)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B18">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hoja Oculta/Parametros.xlsx
+++ b/Hoja Oculta/Parametros.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amatiasq\Documents\GitHub\3D\Hoja Oculta\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>base_largo</t>
   </si>
@@ -108,13 +108,51 @@
   </si>
   <si>
     <t>movimiento_hoja</t>
+  </si>
+  <si>
+    <t>movimiento_deslizador</t>
+  </si>
+  <si>
+    <t>deslizador_largo</t>
+  </si>
+  <si>
+    <t>deslizador_ancho</t>
+  </si>
+  <si>
+    <t>deslizador_saliente</t>
+  </si>
+  <si>
+    <t>deslizador_interruptor_ancho</t>
+  </si>
+  <si>
+    <t>deslizador_interruptor_largo</t>
+  </si>
+  <si>
+    <t>deslizador_interruptor_angulo</t>
+  </si>
+  <si>
+    <t>deslizador_saliente_largo</t>
+  </si>
+  <si>
+    <t>movimiento_tirador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;?\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +178,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,23 +467,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>3</v>
       </c>
     </row>
@@ -449,7 +493,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>60</v>
       </c>
     </row>
@@ -457,216 +501,302 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <f>VLOOKUP("hoja_ancho_total",A:B,2,FALSE)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
+        <f xml:space="preserve"> VLOOKUP("base_largo",A:B,2,FALSE) - VLOOKUP("muros_grosor",A:B,2,FALSE) * 2 - VLOOKUP("tirador_largo",A:B,2,FALSE) * 2 - VLOOKUP("movimiento_deslizador",A:B,2,FALSE) / 2</f>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <f>VLOOKUP("deslizador_soporte_ancho",A:B,2,FALSE)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>0.3</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <f xml:space="preserve"> VLOOKUP("hoja_ancho",A:B,2,FALSE) + VLOOKUP("hoja_stop_saliente",A:B,2,FALSE) * 2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B33" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
-        <f xml:space="preserve"> LOOKUP("base_alto",A:A,B:B ) / 2</f>
+      <c r="B34" s="1">
+        <f xml:space="preserve"> VLOOKUP("base_alto",A:B,2,FALSE) / 2</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
+      <c r="B35" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f xml:space="preserve"> LOOKUP("hoja_ancho",A:A,B:B) + (LOOKUP("hoja_stop_saliente",A:A,B:B) * 2)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B37" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>100</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <f>VLOOKUP("movimiento_deslizador",A:B, 2, FALSE)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B18">
+  <sortState ref="A1:H37">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hoja Oculta/Parametros.xlsx
+++ b/Hoja Oculta/Parametros.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>base_largo</t>
   </si>
@@ -135,6 +135,36 @@
   </si>
   <si>
     <t>movimiento_tirador</t>
+  </si>
+  <si>
+    <t>traba_largo</t>
+  </si>
+  <si>
+    <t>traba_ancho</t>
+  </si>
+  <si>
+    <t>traba_diametro</t>
+  </si>
+  <si>
+    <t>traba_diametro_perforacion</t>
+  </si>
+  <si>
+    <t>traba_alto</t>
+  </si>
+  <si>
+    <t>traba_top_largo</t>
+  </si>
+  <si>
+    <t>traba_top_alto</t>
+  </si>
+  <si>
+    <t>base_agujeros_distancia</t>
+  </si>
+  <si>
+    <t>base_agujeros_separacion</t>
+  </si>
+  <si>
+    <t>base_agujeros_diametro</t>
   </si>
 </sst>
 </file>
@@ -468,10 +498,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,31 +513,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1">
         <v>2</v>
-      </c>
-      <c r="B1" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -515,286 +545,368 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B9" s="1">
         <f>VLOOKUP("hoja_ancho_total",A:B,2,FALSE)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
-        <f xml:space="preserve"> VLOOKUP("base_largo",A:B,2,FALSE) - VLOOKUP("muros_grosor",A:B,2,FALSE) * 2 - VLOOKUP("tirador_largo",A:B,2,FALSE) * 2 - VLOOKUP("movimiento_deslizador",A:B,2,FALSE) / 2</f>
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
-        <f>VLOOKUP("deslizador_soporte_ancho",A:B,2,FALSE)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <f xml:space="preserve"> VLOOKUP("base_largo",A:B,2,FALSE) - VLOOKUP("muros_grosor",A:B,2,FALSE) * 2 - VLOOKUP("tirador_largo",A:B,2,FALSE) * 2 - VLOOKUP("movimiento_deslizador",A:B,2,FALSE)</f>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
+        <f>VLOOKUP("deslizador_soporte_ancho",A:B,2,FALSE)</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B23" s="1">
         <f xml:space="preserve"> VLOOKUP("hoja_ancho",A:B,2,FALSE) + VLOOKUP("hoja_stop_saliente",A:B,2,FALSE) * 2</f>
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1">
-        <v>5</v>
-      </c>
-      <c r="H28" s="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
-        <v>0.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
-        <v>200</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1">
-        <v>10</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1">
+        <f>VLOOKUP("movimiento_deslizador",A:B, 2, FALSE)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B38" s="1">
         <f xml:space="preserve"> VLOOKUP("base_alto",A:B,2,FALSE) / 2</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B40" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B41" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1">
-        <f>VLOOKUP("movimiento_deslizador",A:B, 2, FALSE)</f>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
+      <c r="B45" s="1">
+        <f>VLOOKUP("base_agujeros_diametro",A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="1">
+        <f>VLOOKUP("base_agujeros_distancia",A:B,2,FALSE) - 11</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:H37">
-    <sortCondition ref="A1"/>
+  <sortState ref="A1:H48">
+    <sortCondition ref="A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Hoja Oculta/Parametros.xlsx
+++ b/Hoja Oculta/Parametros.xlsx
@@ -500,8 +500,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
